--- a/templates/Refurb Work Order.xlsx
+++ b/templates/Refurb Work Order.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD44FA71-2FDC-4E53-ACBD-272BC6E0081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34118A9E-87CE-4B7F-B089-A6D4B7E43E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
-    <sheet name="Add Component" sheetId="8" r:id="rId2"/>
-    <sheet name="Add Operation" sheetId="7" r:id="rId3"/>
-    <sheet name="Time and Qty Booking" sheetId="2" r:id="rId4"/>
-    <sheet name="WO receipt" sheetId="3" r:id="rId5"/>
-    <sheet name="WO Receipt reversal" sheetId="4" r:id="rId6"/>
-    <sheet name="Time and Qty Booking Reversal" sheetId="5" r:id="rId7"/>
-    <sheet name="Delete Operation and Components" sheetId="6" r:id="rId8"/>
+    <sheet name="Extract Componet" sheetId="9" r:id="rId2"/>
+    <sheet name="Add Component" sheetId="8" r:id="rId3"/>
+    <sheet name="Add Operation" sheetId="7" r:id="rId4"/>
+    <sheet name="Time and Qty Booking" sheetId="2" r:id="rId5"/>
+    <sheet name="WO receipt" sheetId="3" r:id="rId6"/>
+    <sheet name="WO Receipt reversal" sheetId="4" r:id="rId7"/>
+    <sheet name="Time and Qty Booking Reversal" sheetId="5" r:id="rId8"/>
+    <sheet name="Delete Operation and Components" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="98">
   <si>
     <t>Site</t>
   </si>
@@ -55,9 +56,6 @@
     <t>Project Charge Code</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
-  </si>
-  <si>
     <t>1020 (100 charge code active)</t>
   </si>
   <si>
@@ -184,12 +182,6 @@
     <t>Delete Operations</t>
   </si>
   <si>
-    <t>Delete Components</t>
-  </si>
-  <si>
-    <t>Extract operations and component</t>
-  </si>
-  <si>
     <t>Component Item</t>
   </si>
   <si>
@@ -217,24 +209,15 @@
     <t>Pro-child4 (NO Track)</t>
   </si>
   <si>
-    <t>Qty Per</t>
-  </si>
-  <si>
     <t>Component Per</t>
   </si>
   <si>
     <t>Fixed Qty</t>
   </si>
   <si>
-    <t>Pro-child1 (Lot Track)</t>
-  </si>
-  <si>
     <t>Pro-child5 (NO Track)</t>
   </si>
   <si>
-    <t>Pro-serial Track (Serial Track)</t>
-  </si>
-  <si>
     <t>Operation Type</t>
   </si>
   <si>
@@ -310,12 +293,6 @@
     <t>Op 20</t>
   </si>
   <si>
-    <t>Pro-No Track (Make no Track)</t>
-  </si>
-  <si>
-    <t>Pro-Lot and serial Track (Lot and serial track)</t>
-  </si>
-  <si>
     <t>Op 30</t>
   </si>
   <si>
@@ -328,21 +305,38 @@
     <t>Pro-child2</t>
   </si>
   <si>
-    <t>Pro-child3</t>
-  </si>
-  <si>
     <t>Pro-child4</t>
+  </si>
+  <si>
+    <t>Pro-RefurbParentLot (Lot track)</t>
+  </si>
+  <si>
+    <t>Extract component</t>
+  </si>
+  <si>
+    <t>Extract operations</t>
+  </si>
+  <si>
+    <t>Pro-RefurbParentSerial (Serial track)</t>
+  </si>
+  <si>
+    <t>Pro-RefurbParentNoTrack (NO Track)</t>
+  </si>
+  <si>
+    <t>Pro-RefurbParentBoth (Lot and serial track)</t>
+  </si>
+  <si>
+    <t>8/16/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,25 +363,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -402,16 +384,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +701,7 @@
     <col min="21" max="21" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,90 +721,126 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -837,11 +851,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A5DC5-11A9-463E-B813-87CC78B959DE}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4118D1B-4664-40C2-B0BA-D00B0B607D20}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A5DC5-11A9-463E-B813-87CC78B959DE}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,128 +950,128 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="b">
+        <v>57</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1E-3</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="b">
+        <v>57</v>
+      </c>
+      <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="b">
+        <v>60</v>
+      </c>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -997,15 +1086,15 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1020,96 +1109,53 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="b">
+        <v>57</v>
+      </c>
+      <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="b">
+      <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1E-3</v>
+        <v>0.3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1118,12 +1164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,99 +1198,99 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1252,49 +1298,49 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1302,49 +1348,49 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1352,49 +1398,49 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1402,49 +1448,49 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1452,49 +1498,49 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1502,49 +1548,49 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1552,49 +1598,49 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1602,51 +1648,201 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10">
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13">
         <v>1</v>
       </c>
     </row>
@@ -1656,13 +1852,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,118 +1884,118 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
         <v>44537</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1808,24 +2004,24 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1834,82 +2030,82 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
         <v>44537</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
         <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
         <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1918,24 +2114,24 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
         <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1944,82 +2140,82 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
         <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
         <v>44537</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
         <v>25</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
         <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -2028,24 +2224,24 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
         <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -2054,82 +2250,82 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
         <v>25</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4">
         <v>44537</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
         <v>25</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
         <v>25</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -2138,24 +2334,24 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
         <v>25</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -2164,10 +2360,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
         <v>25</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2177,12 +2373,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2204,176 +2400,164 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
         <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2381,12 +2565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2402,68 +2586,68 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2471,12 +2655,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:D17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,18 +2674,18 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -2509,7 +2693,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -2517,7 +2701,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2525,7 +2709,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2533,7 +2717,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -2541,7 +2725,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -2549,7 +2733,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -2557,7 +2741,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2565,7 +2749,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2573,7 +2757,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -2581,7 +2765,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2589,7 +2773,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2597,7 +2781,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -2605,7 +2789,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2613,7 +2797,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -2621,7 +2805,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -2632,12 +2816,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:C5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,58 +2831,43 @@
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
         <v>1</v>
       </c>
     </row>
